--- a/Emissao/Dados_Emissao/Editado/Aline_Regina_Diogo_Gonzaga.xlsx
+++ b/Emissao/Dados_Emissao/Editado/Aline_Regina_Diogo_Gonzaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,11 @@
           <t>Frota Itens</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ZeradoMes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -573,7 +578,7 @@
         <v>531</v>
       </c>
       <c r="C2" t="n">
-        <v>926</v>
+        <v>990</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -586,7 +591,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3397</v>
+        <v>111126</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -596,7 +601,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ECOCOLLOR REVESTIMENTOS E DECORACAO LTDA</t>
+          <t>NILTON FERREIRA DA SILVA</t>
         </is>
       </c>
       <c r="J2" t="n">
@@ -604,30 +609,30 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-10-30</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-10-04</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.512,46</t>
+          <t xml:space="preserve"> 2.601,86</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.771,66</t>
+          <t xml:space="preserve"> 2.793,87</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
@@ -673,76 +678,39 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>Empresarial</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>531</v>
-      </c>
-      <c r="C3" t="n">
-        <v>927</v>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>505404</t>
+          <t>403436</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A L CORR DE SEGS SOC UNIPESSOAL</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>18065</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>PRISCILA DE OLIVEIRA LIMA PALMA</t>
-        </is>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>4</v>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 397,31</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 426,62</t>
-        </is>
-      </c>
+          <t>A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
@@ -784,78 +752,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>531</v>
-      </c>
-      <c r="C4" t="n">
-        <v>927</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>505404</t>
+          <t>490020</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A L CORR DE SEGS SOC UNIPESSOAL</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>18098</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>JOAO ALVES PIRES</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 131,33</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 141,01</t>
-        </is>
-      </c>
+          <t>ALBA ANDRADE CORRETORA DE SEGURO</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
         <is>
@@ -897,78 +828,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>531</v>
-      </c>
-      <c r="C5" t="n">
-        <v>927</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>505404</t>
+          <t>404093</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>A L CORR DE SEGS SOC UNIPESSOAL</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>18118</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>ALISON INACIO DA SILVA</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 276,08</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 296,44</t>
-        </is>
-      </c>
+          <t>AMPARATO CORRETORA DE SEGUROS LT</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
@@ -1010,78 +904,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>531</v>
-      </c>
-      <c r="C6" t="n">
-        <v>927</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>505404</t>
+          <t>501944</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>A L CORR DE SEGS SOC UNIPESSOAL</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>18150</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>MARCO AURELIO DE SOUZA DIAS</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 313,47</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 336,57</t>
-        </is>
-      </c>
+          <t>BARUCH CORR E ADM DE SEGUROS EIR</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
         <is>
@@ -1123,78 +980,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>531</v>
-      </c>
-      <c r="C7" t="n">
-        <v>927</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>505404</t>
+          <t>445350</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A L CORR DE SEGS SOC UNIPESSOAL</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>18185</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>ARTUR JOSE PRADO LEITE</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 268,30</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 288,08</t>
-        </is>
-      </c>
+          <t>BASSI DOMENICONI CORRETORA DE SE</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
@@ -1236,12 +1056,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1251,12 +1072,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>403436</t>
+          <t>404503</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>A R MAGALHAES &amp; FILHOS CORR SEGS</t>
+          <t>BENAIA CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1313,6 +1134,11 @@
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1322,12 +1148,12 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>490020</t>
+          <t>402229</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ALBA ANDRADE CORRETORA DE SEGURO</t>
+          <t>CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -1384,72 +1210,39 @@
       </c>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>531</v>
-      </c>
-      <c r="C10" t="n">
-        <v>990</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>404093</t>
+          <t>486565</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AMPARATO CORRETORA DE SEGUROS LT</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>110097</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>SULAMITA DE FATIMA EVANGELISTA HENRIQUE</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2024-09-09</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>6</v>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.110,36</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.266,10</t>
-        </is>
-      </c>
+          <t>CL CONFIDENCE CORRETORA DE SEGS</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
@@ -1491,12 +1284,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1506,12 +1300,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>501944</t>
+          <t>436604</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BARUCH CORR E ADM DE SEGUROS EIR</t>
+          <t>COSTA VALE CORR</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1568,72 +1362,39 @@
       </c>
       <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>531</v>
-      </c>
-      <c r="C12" t="n">
-        <v>927</v>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>445350</t>
+          <t>444489</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BASSI DOMENICONI CORRETORA DE SE</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>18206</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>GIOVANNI FURQUIM RIBEIRO</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 520,14</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 558,48</t>
-        </is>
-      </c>
+          <t>E A M ROSA CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
@@ -1675,78 +1436,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>531</v>
-      </c>
-      <c r="C13" t="n">
-        <v>990</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>445350</t>
+          <t>495291</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BASSI DOMENICONI CORRETORA DE SE</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>110089</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>ANA PAULA BUENO</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.277,52</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.445,60</t>
-        </is>
-      </c>
+          <t>ELECT CORRETORA DE SEG E CONSULT</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
@@ -1788,78 +1512,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>531</v>
-      </c>
-      <c r="C14" t="n">
-        <v>927</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>404503</t>
+          <t>400552</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BENAIA CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>18100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>LUCIANA OLIVEIRA ROCHA MEM</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 420,89</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 451,93</t>
-        </is>
-      </c>
+          <t>ELIANA DE PAULA TINOCO</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
@@ -1901,12 +1588,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1916,12 +1604,12 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>402229</t>
+          <t>401292</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CELEBRA ADM.COR.SEGUROS S/C LTDA</t>
+          <t>FACILIT CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1978,72 +1666,39 @@
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>531</v>
-      </c>
-      <c r="C16" t="n">
-        <v>927</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>486565</t>
+          <t>404395</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CL CONFIDENCE CORRETORA DE SEGS</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>18067</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>SHIRLEY CASSIANO LEITE</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 289,91</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 311,27</t>
-        </is>
-      </c>
+          <t>FAMILIA CASTELLO CORR DE SEG LTD</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
         <is>
@@ -2085,78 +1740,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>531</v>
-      </c>
-      <c r="C17" t="n">
-        <v>927</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>486565</t>
+          <t>524248</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CL CONFIDENCE CORRETORA DE SEGS</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>18113</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ROSAURA MARILEY VILAS BOAS MORAES</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>8</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 433,61</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 465,54</t>
-        </is>
-      </c>
+          <t>FORTIS CORRETORA DE SEGUROS E IN</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
         <is>
@@ -2198,78 +1816,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>531</v>
-      </c>
-      <c r="C18" t="n">
-        <v>990</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>486565</t>
+          <t>400048</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CL CONFIDENCE CORRETORA DE SEGS</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>110090</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ROGERIO FRANCISCO DA SILVA</t>
-        </is>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2024-09-26</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2025-09-26</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.997,02</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.144,40</t>
-        </is>
-      </c>
+          <t>FRANCISCO VICENTE LEMES DE PAIVA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
@@ -2311,78 +1892,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>531</v>
-      </c>
-      <c r="C19" t="n">
-        <v>990</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>436604</t>
+          <t>509062</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>COSTA VALE CORR</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>110165</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>MMC ESQUADRIAS DE ALUMINIO LTDA ME</t>
-        </is>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2024-09-23</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2025-09-23</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>10</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.663,61</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.155,38</t>
-        </is>
-      </c>
+          <t>FS ACERTO CONSULT E CORR DE SEGU</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
         <is>
@@ -2424,78 +1968,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>531</v>
-      </c>
-      <c r="C20" t="n">
-        <v>990</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>444489</t>
+          <t>421702</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>E A M ROSA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>110248</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>WILSON DE OLIVEIRA ROSA JUNIOR</t>
-        </is>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2025-10-07</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.137,71</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.369,27</t>
-        </is>
-      </c>
+          <t>GAMARRA CORRETORA DE SEGUROS LTD</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
         <is>
@@ -2537,40 +2044,79 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+      <c r="B21" t="n">
+        <v>531</v>
+      </c>
+      <c r="C21" t="n">
+        <v>927</v>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>495291</t>
+          <t>481920</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ELECT CORRETORA DE SEG E CONSULT</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
+          <t>GF INVEST SEGURO CORR DE SEG LTD</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>18581</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ESMERALDO P GONCALVES</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 286,26</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 307,38</t>
+        </is>
+      </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
         <is>
@@ -2612,8 +2158,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2627,16 +2178,16 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>400552</t>
+          <t>404640</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELIANA DE PAULA TINOCO</t>
+          <t>IMS CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>110185</v>
+        <v>111124</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2646,7 +2197,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>CLAUDIO CARVALHO DA SILVA</t>
+          <t>JOSE HILTON SILVA</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -2654,30 +2205,30 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-10-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-10-11</t>
+          <t>2024-10-28</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.634,35</t>
+          <t xml:space="preserve"> 2.909,88</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.754,96</t>
+          <t xml:space="preserve"> 3.124,62</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
@@ -2727,6 +2278,7 @@
         </is>
       </c>
       <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2736,12 +2288,12 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>401292</t>
+          <t>505987</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FACILIT CORRETORA DE SEGUROS LTD</t>
+          <t>LA OSSA CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -2798,34 +2350,77 @@
       </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="B24" t="n">
+        <v>531</v>
+      </c>
+      <c r="C24" t="n">
+        <v>990</v>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>404395</t>
+          <t>497004</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FAMILIA CASTELLO CORR DE SEG LTD</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
+          <t>LCA SEG CORRETORA DE SEGUROS EIR</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>111150</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>F C DA SILVA FARIA LOCACOES</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2024-10-27</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>10</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 54.387,39</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 58.401,17</t>
+        </is>
+      </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
@@ -2867,23 +2462,30 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>Frota</t>
+        </is>
+      </c>
+      <c r="AA24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>524248</t>
+          <t>480434</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FORTIS CORRETORA DE SEGUROS E IN</t>
+          <t>MACEDO MARCONDES ADM E CORR DE S</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -2940,72 +2542,39 @@
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>531</v>
-      </c>
-      <c r="C26" t="n">
-        <v>926</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>400048</t>
+          <t>445129</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FRANCISCO VICENTE LEMES DE PAIVA</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3410</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>INSTITUTO RAIZES DO VALE</t>
-        </is>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>6</v>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.244,79</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.336,65</t>
-        </is>
-      </c>
+          <t>MULTIPLA ADM CORRETORA DE SEGURO</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr">
         <is>
@@ -3047,78 +2616,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>531</v>
-      </c>
-      <c r="C27" t="n">
-        <v>990</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>400048</t>
+          <t>479511</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>FRANCISCO VICENTE LEMES DE PAIVA</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>110029</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>FLAVIA MAQUIA LANDIN</t>
-        </is>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2024-09-13</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>2025-09-13</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.943,04</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.160,23</t>
-        </is>
-      </c>
+          <t>OLIVEIRA CESNIK CONSULTORIA E CO</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr">
         <is>
@@ -3160,27 +2692,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>509062</t>
+          <t>401344</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FS ACERTO CONSULT E CORR DE SEGU</t>
+          <t>PAIVA &amp; PAIVA COR.DE SEGS.LTDA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -3237,21 +2770,26 @@
       </c>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>421702</t>
+          <t>404241</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>GAMARRA CORRETORA DE SEGUROS LTD</t>
+          <t>PAPARELE CORR DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -3308,72 +2846,39 @@
       </c>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>531</v>
-      </c>
-      <c r="C30" t="n">
-        <v>990</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>481920</t>
+          <t>479506</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>GF INVEST SEGURO CORR DE SEG LTD</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>110034</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>LUIS GONZAGA IRINEU DA SILVA</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>5</v>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.242,95</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.334,67</t>
-        </is>
-      </c>
+          <t>PATRICIA AUGUSTA DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
         <is>
@@ -3415,27 +2920,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>404640</t>
+          <t>400999</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>IMS CORRETORA DE SEGUROS LTDA</t>
+          <t>PATRICIA DE CASTRO CARDOSO</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3492,21 +2998,26 @@
       </c>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>505987</t>
+          <t>401270</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>LA OSSA CORRETORA DE SEGUROS LTD</t>
+          <t>PAULO ROBERTO DE PADUA SANTOS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -3563,72 +3074,39 @@
       </c>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>531</v>
-      </c>
-      <c r="C33" t="n">
-        <v>927</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>497004</t>
+          <t>436328</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>LCA SEG CORRETORA DE SEGUROS EIR</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>18119</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>ARTHUR DE FREITAS MOREIRA</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>2025-10-03</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 300,05</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 322,13</t>
-        </is>
-      </c>
+          <t>PLENAMENTE CONS. E CORR SEGS LTD</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
@@ -3670,78 +3148,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>531</v>
-      </c>
-      <c r="C34" t="n">
-        <v>990</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>497004</t>
+          <t>498234</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LCA SEG CORRETORA DE SEGUROS EIR</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>110162</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>JOSE MARCOS BARBOSA DA SILVEIRA</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>2025-10-04</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>1</v>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.593,48</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.711,07</t>
-        </is>
-      </c>
+          <t>PORTO BR CORRERTORA DE SEGUROS L</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
@@ -3783,27 +3224,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>480434</t>
+          <t>402591</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>MACEDO MARCONDES ADM E CORR DE S</t>
+          <t>PR CORREA LIMA COR SEG SC LT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -3860,21 +3302,26 @@
       </c>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>445129</t>
+          <t>487985</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MULTIPLA ADM CORRETORA DE SEGURO</t>
+          <t>RAFAEL FREIRE MUNIZ BARRETO SEGS</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -3931,21 +3378,26 @@
       </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>479511</t>
+          <t>401244</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OLIVEIRA CESNIK CONSULTORIA E CO</t>
+          <t>RICARDO LINHARES MACHADO DA SILV</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -4002,21 +3454,26 @@
       </c>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>401344</t>
+          <t>482713</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>PAIVA &amp; PAIVA COR.DE SEGS.LTDA</t>
+          <t>ROSATI CORRETORA DE SEGUROS EIRE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4073,21 +3530,26 @@
       </c>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>404241</t>
+          <t>439165</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>PAPARELE CORR DE SEGUROS LTDA</t>
+          <t>RSP CORRETORA DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -4144,72 +3606,39 @@
       </c>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>531</v>
-      </c>
-      <c r="C40" t="n">
-        <v>927</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>479506</t>
+          <t>401895</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>PATRICIA AUGUSTA DE ARAUJO</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>18075</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>JEAN MICHEL DENIS RAYMOND NORDEMANN</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2024-10-06</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>2025-10-06</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>8</v>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 662,73</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 711,61</t>
-        </is>
-      </c>
+          <t>SEGNET CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
@@ -4251,27 +3680,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
+      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>400999</t>
+          <t>484699</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>PATRICIA DE CASTRO CARDOSO</t>
+          <t>SEGURAKI CORR DE SEGS, CONS E PR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4328,21 +3758,26 @@
       </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>401270</t>
+          <t>480856</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO DE PADUA SANTOS</t>
+          <t>SILVA &amp; MARTINS DE OLIVEIRA CORR</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -4399,21 +3834,26 @@
       </c>
       <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>436328</t>
+          <t>400201</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>PLENAMENTE CONS. E CORR SEGS LTD</t>
+          <t>SILVIO RODRIGUES SILVA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -4470,34 +3910,77 @@
       </c>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="B44" t="n">
+        <v>531</v>
+      </c>
+      <c r="C44" t="n">
+        <v>927</v>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>498234</t>
+          <t>482711</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>PORTO BR CORRERTORA DE SEGUROS L</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
+          <t>SOUSA DIAS ADM E CORR DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>18567</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>VANESSA SOUZA PORTILHO BOLANHO DA ROSA</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>2025-11-01</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 480,49</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 515,93</t>
+        </is>
+      </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
@@ -4539,74 +4022,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>Residencial Sob Medida</t>
+        </is>
+      </c>
       <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>531</v>
-      </c>
-      <c r="C45" t="n">
-        <v>990</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>402591</t>
+          <t>507449</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>PR CORREA LIMA COR SEG SC LT</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>110124</v>
-      </c>
-      <c r="G45" t="n">
-        <v>1</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>PAULA NATALIA BISCUOLA</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>2024-10-03</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2024-10-18</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>2025-10-18</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>10</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.496,20</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.680,41</t>
-        </is>
-      </c>
+          <t>SOUZA E RODRIGUES CORRETORA DE S</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr">
         <is>
@@ -4648,78 +4098,41 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>531</v>
-      </c>
-      <c r="C46" t="n">
-        <v>917</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>487985</t>
+          <t>492495</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>RAFAEL FREIRE MUNIZ BARRETO SEGS</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>1843</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>PRESERVE ENGENHARIA ELETRICA</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2024-10-01</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2025-10-01</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>6</v>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.449,38</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5.851,50</t>
-        </is>
-      </c>
+          <t>T &amp; E CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr">
         <is>
@@ -4761,27 +4174,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>Equipamento</t>
-        </is>
-      </c>
+      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>401244</t>
+          <t>486554</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RICARDO LINHARES MACHADO DA SILV</t>
+          <t>TONAREC CORRETORA DE SEGUROS LTD</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -4838,72 +4252,39 @@
       </c>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>531</v>
-      </c>
-      <c r="C48" t="n">
-        <v>990</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>482713</t>
+          <t>498759</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>ROSATI CORRETORA DE SEGUROS EIRE</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>110137</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>ERIKA ESCOBAR DE SOUSA</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>10</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.521,33</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4.855,00</t>
-        </is>
-      </c>
+          <t>V &amp; B PRADO CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr">
         <is>
@@ -4945,27 +4326,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>439165</t>
+          <t>440531</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>RSP CORRETORA DE SEGUROS LTDA</t>
+          <t>VALE MUNDIAL CORRETORA DE SEG.</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -5022,72 +4404,39 @@
       </c>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>531</v>
-      </c>
-      <c r="C50" t="n">
-        <v>990</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>401895</t>
+          <t>492247</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>SEGNET CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>110136</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>ADERBAL DIAS DERMENJIAN</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2024-10-02</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>2025-10-02</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>12</v>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6.849,73</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7.355,24</t>
-        </is>
-      </c>
+          <t>VALE SEG CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr">
         <is>
@@ -5129,27 +4478,28 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>484699</t>
+          <t>410606</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>SEGURAKI CORR DE SEGS, CONS E PR</t>
+          <t>VENCENDO MEU SEGURO COR SEGS LTD</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -5206,21 +4556,26 @@
       </c>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>480856</t>
+          <t>403377</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SILVA &amp; MARTINS DE OLIVEIRA CORR</t>
+          <t>VIA EXATA COR.DE SEGUROS LTDA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -5277,34 +4632,77 @@
       </c>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="B53" t="n">
+        <v>531</v>
+      </c>
+      <c r="C53" t="n">
+        <v>990</v>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>400201</t>
+          <t>443746</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>SILVIO RODRIGUES SILVA</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
+          <t>VILA NOVA CORRETORA DE SEGUROS</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>111118</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>RICARDO ASATO</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>6</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 4.930,03</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 5.293,86</t>
+        </is>
+      </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
@@ -5346,31 +4744,36 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>Auto</t>
+        </is>
+      </c>
       <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B54" t="n">
         <v>531</v>
       </c>
       <c r="C54" t="n">
-        <v>927</v>
+        <v>990</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>482711</t>
+          <t>443746</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>SOUSA DIAS ADM E CORR DE SEGUROS</t>
+          <t>VILA NOVA CORRETORA DE SEGUROS</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>14169</v>
+        <v>111133</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -5380,7 +4783,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ALINE DOS SANTOS ROMEIRO</t>
+          <t>TATIANE CORTE CARDOSO</t>
         </is>
       </c>
       <c r="J54" t="n">
@@ -5388,30 +4791,30 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2024-10-04</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-11-04</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2025-01-20</t>
+          <t>2025-11-04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 193,77</t>
+          <t xml:space="preserve"> 1.046,39</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 208,05</t>
+          <t xml:space="preserve"> 1.123,61</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
@@ -5457,76 +4860,39 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>Residencial Sob Medida</t>
+          <t>Auto</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>531</v>
-      </c>
-      <c r="C55" t="n">
-        <v>990</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>507449</t>
+          <t>503672</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SOUZA E RODRIGUES CORRETORA DE S</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>110176</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>ANTONIO PAULINO DE BRITO</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>2024-10-07</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>2024-10-05</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>1</v>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.121,71</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.204,49</t>
-        </is>
-      </c>
+          <t>ZION CORRETORA DE SEGUROS LTDA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
@@ -5568,974 +4934,13 @@
           <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>492495</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>T &amp; E CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>531</v>
-      </c>
-      <c r="C57" t="n">
-        <v>926</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>486554</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TONAREC CORRETORA DE SEGUROS LTD</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>3408</v>
-      </c>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>MUNDO ICE COMERCIO DE SORVETES LTDA</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>2025-10-08</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>5</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 276,32</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 296,67</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>531</v>
-      </c>
-      <c r="C58" t="n">
-        <v>990</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>498759</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>V &amp; B PRADO CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>110289</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>GABRIEL RODRIGUES DE ALMEIDA MOURA</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>2025-10-11</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>11</v>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.360,66</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.461,07</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>531</v>
-      </c>
-      <c r="C59" t="n">
-        <v>927</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>440531</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>VALE MUNDIAL CORRETORA DE SEG.</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>18155</v>
-      </c>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>LEANDRO JUVENAL DOS SANTOS</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>2024-10-09</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>2025-10-09</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>1</v>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 111,69</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 119,92</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>Residencial Sob Medida</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" t="n">
-        <v>990</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>440531</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>VALE MUNDIAL CORRETORA DE SEG.</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>110209</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>DAVID ULISSES DE SOUZA</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>2024-09-22</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>2025-09-22</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>6</v>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.708,19</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1.834,25</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>492247</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>VALE SEG CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>410606</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>VENCENDO MEU SEGURO COR SEGS LTD</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>531</v>
-      </c>
-      <c r="C63" t="n">
-        <v>926</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>403377</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>VIA EXATA COR.DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>3396</v>
-      </c>
-      <c r="G63" t="n">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>SCUDERIA GWR AUTOMOTIVE SERVICE</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>2024-10-04</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>2024-09-29</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>2025-09-29</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>4</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.892,60</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3.106,04</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>Empresarial</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>531</v>
-      </c>
-      <c r="C64" t="n">
-        <v>990</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>443746</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>VILA NOVA CORRETORA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>110218</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>AMENY PIERANGELLI VELLOSO DE ALCANTARA</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>2024-10-08</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>2024-09-30</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>2025-09-30</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>4</v>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.222,94</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2.386,99</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>Auto</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>503672</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>ZION CORRETORA DE SEGUROS LTDA</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>SAO JOSE DOS CAMPOS MERCADO</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>342.581.618-70</t>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>Aline Regina Diogo Gonzaga</t>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>30.535.273/0001-00</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>SCHERER ASSESSORIA E CONSULTORIA</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>531</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>BRADESCO AUTO/RE COMPANHIA DE SEGUROS</t>
-        </is>
-      </c>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
